--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_zero.xlsx
@@ -69,88 +69,88 @@
     <t>-y</t>
   </si>
   <si>
-    <t>-4.531632408573915</t>
+    <t>-4.374623078112156</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.9216433883592792</t>
-  </si>
-  <si>
-    <t>0.6529768925065589</t>
-  </si>
-  <si>
-    <t>0.9976225040673725</t>
+    <t>0.33468162538227564</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.9872811638058144</t>
   </si>
   <si>
     <t>-3 - x + y</t>
   </si>
   <si>
-    <t>-3.158405883621576</t>
-  </si>
-  <si>
-    <t>0.23190969850965648</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.842491389095321</t>
+    <t>-2.8102693382873367</t>
+  </si>
+  <si>
+    <t>0.9092567913461869</t>
+  </si>
+  <si>
+    <t>0.2538126765657339</t>
   </si>
   <si>
     <t>-12 + x + 2y</t>
   </si>
   <si>
-    <t>1.7533031093433218</t>
+    <t>0.9341385726238034</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9637500450473929</t>
-  </si>
-  <si>
-    <t>0.4573922570502391</t>
+    <t>0.7906785535517057</t>
+  </si>
+  <si>
+    <t>0.8266745873534492</t>
   </si>
   <si>
     <t>-12 + 4x - y</t>
   </si>
   <si>
-    <t>2.228520760208049</t>
+    <t>0.36494658748581443</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.9062712352416179</t>
-  </si>
-  <si>
-    <t>0.4093740456984749</t>
+    <t>0.5618257705012442</t>
+  </si>
+  <si>
+    <t>0.3714762402532654</t>
+  </si>
+  <si>
+    <t>0.4485872944177247</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>4.690038292195491</t>
-  </si>
-  <si>
-    <t>4.531632408573915</t>
+    <t>4.184892416399492</t>
+  </si>
+  <si>
+    <t>4.374623078112156</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.3314951650035454</t>
+    <t>-2.5941065025660786</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>0.5426077429497609</t>
-  </si>
-  <si>
-    <t>2.7381923784060804</t>
+    <t>-1.3125795483665108</t>
+  </si>
+  <si>
+    <t>1.718127065546367</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -621,47 +621,47 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>31</v>

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,91 +66,97 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-y</t>
-  </si>
-  <si>
-    <t>-4.374623078112156</t>
+    <t>8.05 - y</t>
+  </si>
+  <si>
+    <t>-8.05</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.33468162538227564</t>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>6.800000000000001</t>
+  </si>
+  <si>
+    <t>-1.950000000000001 - x + y</t>
+  </si>
+  <si>
+    <t>-1.049999999999999</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>3.4000000000000004</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.9872811638058144</t>
-  </si>
-  <si>
-    <t>-3 - x + y</t>
-  </si>
-  <si>
-    <t>-2.8102693382873367</t>
-  </si>
-  <si>
-    <t>0.9092567913461869</t>
-  </si>
-  <si>
-    <t>0.2538126765657339</t>
-  </si>
-  <si>
-    <t>-12 + x + 2y</t>
-  </si>
-  <si>
-    <t>0.9341385726238034</t>
+    <t>-22.200000000000003 + x + 2y</t>
+  </si>
+  <si>
+    <t>10.200000000000001</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.7906785535517057</t>
-  </si>
-  <si>
-    <t>0.8266745873534492</t>
-  </si>
-  <si>
-    <t>-12 + 4x - y</t>
-  </si>
-  <si>
-    <t>0.36494658748581443</t>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>9.200000000000001</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>-16.36 + 4x - y</t>
+  </si>
+  <si>
+    <t>4.349999999999998</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.5618257705012442</t>
-  </si>
-  <si>
-    <t>0.3714762402532654</t>
-  </si>
-  <si>
-    <t>0.4485872944177247</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>4.184892416399492</t>
-  </si>
-  <si>
-    <t>4.374623078112156</t>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>8.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-2.5941065025660786</t>
+    <t>-2.3899999999999997</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.3125795483665108</t>
-  </si>
-  <si>
-    <t>1.718127065546367</t>
+    <t>-17.6</t>
+  </si>
+  <si>
+    <t>-7.900000000000002</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -621,50 +627,50 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -690,10 +696,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -711,12 +717,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -734,17 +740,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -762,7 +768,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,97 +66,94 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>8.05 - y</t>
-  </si>
-  <si>
-    <t>-8.05</t>
+    <t>5.95 - y</t>
+  </si>
+  <si>
+    <t>-5.95</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>6.800000000000001</t>
-  </si>
-  <si>
-    <t>-1.950000000000001 - x + y</t>
-  </si>
-  <si>
-    <t>-1.049999999999999</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>3.4000000000000004</t>
+    <t>0.37</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-22.200000000000003 + x + 2y</t>
-  </si>
-  <si>
-    <t>10.200000000000001</t>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>-0.6000000000000005 - x + y</t>
+  </si>
+  <si>
+    <t>-2.3999999999999995</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>-17.25 + x + 2y</t>
+  </si>
+  <si>
+    <t>5.25</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.62</t>
+    <t>0.0</t>
   </si>
   <si>
     <t>9.200000000000001</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>-16.36 + 4x - y</t>
-  </si>
-  <si>
-    <t>4.349999999999998</t>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>-15.549999999999999 + 4x - y</t>
+  </si>
+  <si>
+    <t>3.4499999999999993</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>0.4</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>8.05</t>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>5.95</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-2.3899999999999997</t>
+    <t>-1.0</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-17.6</t>
-  </si>
-  <si>
-    <t>-7.900000000000002</t>
+    <t>-2.000000000000001</t>
+  </si>
+  <si>
+    <t>-21.6</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -667,10 +664,10 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -696,10 +693,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -717,12 +714,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -740,17 +737,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +765,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,94 +66,82 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>5.95 - y</t>
-  </si>
-  <si>
-    <t>-5.95</t>
+    <t>8.95 - y</t>
+  </si>
+  <si>
+    <t>-8.95</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.37</t>
+    <t>0.68</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>-0.6000000000000005 - x + y</t>
-  </si>
-  <si>
-    <t>-2.3999999999999995</t>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>-1.9499999999999993 - x + y</t>
+  </si>
+  <si>
+    <t>-1.0500000000000007</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>-24.9 + x + 2y</t>
+  </si>
+  <si>
+    <t>12.899999999999999</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
   </si>
   <si>
     <t>0.44</t>
   </si>
   <si>
-    <t>6.2</t>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>-20.01 + 4x - y</t>
+  </si>
+  <si>
+    <t>7.050000000000001</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>-17.25 + x + 2y</t>
-  </si>
-  <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>9.200000000000001</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>-15.549999999999999 + 4x - y</t>
-  </si>
-  <si>
-    <t>3.4499999999999993</t>
-  </si>
-  <si>
-    <t>J_Ne_L0_v</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>5.95</t>
+    <t>8.95</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.0</t>
+    <t>-0.43999999999999995</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-2.000000000000001</t>
-  </si>
-  <si>
-    <t>-21.6</t>
+    <t>3.0</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -624,50 +612,50 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +673,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -693,10 +681,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -714,12 +702,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -737,17 +725,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +753,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
